--- a/files/browser-benchmark-results.xlsx
+++ b/files/browser-benchmark-results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\browser-benchmark-results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\browser-benchmark-results\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4479D717-5AB1-42AE-9533-F3B91C88EA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90837A8-333A-416C-B236-5867A5ED738E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{8B822904-8CBE-4657-805A-0AE50094A3AA}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="13176" windowHeight="23256" xr2:uid="{8B822904-8CBE-4657-805A-0AE50094A3AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -429,7 +429,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/files/browser-benchmark-results.xlsx
+++ b/files/browser-benchmark-results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\browser-benchmark-results\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90837A8-333A-416C-B236-5867A5ED738E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356CAF23-FF67-4FED-B5A0-FC3F019A073C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="13176" windowHeight="23256" xr2:uid="{8B822904-8CBE-4657-805A-0AE50094A3AA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Google Chrome</t>
   </si>
@@ -54,13 +54,64 @@
     <t>Basemark Web 3.0(no conformance)</t>
   </si>
   <si>
-    <t>Average/Среднее</t>
+    <t>Edge</t>
+  </si>
+  <si>
+    <t>Brave</t>
+  </si>
+  <si>
+    <t>Atom</t>
+  </si>
+  <si>
+    <t>Arc</t>
+  </si>
+  <si>
+    <t>Cent</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Opera</t>
+  </si>
+  <si>
+    <t>Opera GX</t>
+  </si>
+  <si>
+    <t>Thorium</t>
+  </si>
+  <si>
+    <t>Ungoogled Chromium</t>
+  </si>
+  <si>
+    <t>Vivaldi</t>
+  </si>
+  <si>
+    <t>Yandex</t>
+  </si>
+  <si>
+    <t>Yandex Gaming</t>
+  </si>
+  <si>
+    <t>Yandex business</t>
+  </si>
+  <si>
+    <t>Floorp</t>
+  </si>
+  <si>
+    <t>Mercury</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -109,8 +160,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -426,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA09101-25FF-49F9-A77E-D74E6EC61E65}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -438,73 +489,296 @@
     <col min="2" max="16384" width="15.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>220</v>
       </c>
       <c r="C2" s="2">
+        <v>1878</v>
+      </c>
+      <c r="D2" s="2">
+        <v>282</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1852</v>
+      </c>
+      <c r="F2" s="4">
+        <f>AVERAGE(B2:E2)</f>
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
         <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1878</v>
       </c>
       <c r="C3" s="2">
         <v>1033</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="2">
+        <v>255</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1491</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:F21" si="0">AVERAGE(B3:E3)</f>
+        <v>731.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>282</v>
+        <v>220</v>
       </c>
       <c r="C4" s="2">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1852</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1491</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1807</v>
+      </c>
+      <c r="D4" s="2">
+        <v>270</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2043</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="0"/>
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="F5" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F6" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <f>AVERAGE(B2:B5)</f>
-        <v>1058</v>
-      </c>
-      <c r="C7" s="2">
-        <f>AVERAGE(C2:C5)</f>
-        <v>731.5</v>
+        <v>9</v>
+      </c>
+      <c r="F7" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>221</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1295</v>
+      </c>
+      <c r="D8" s="2">
+        <v>270</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1983</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="0"/>
+        <v>942.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2">
+        <v>210</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1744</v>
+      </c>
+      <c r="D16" s="2">
+        <v>275</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2056</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="0"/>
+        <v>1071.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2">
+        <v>186</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1656</v>
+      </c>
+      <c r="D17" s="2">
+        <v>267</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2050</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="0"/>
+        <v>1039.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="F19" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2">
+        <v>131</v>
+      </c>
+      <c r="C20" s="2">
+        <v>860</v>
+      </c>
+      <c r="D20" s="2">
+        <v>215</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1465</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="0"/>
+        <v>667.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2">
+        <v>130</v>
+      </c>
+      <c r="C21" s="2">
+        <v>891</v>
+      </c>
+      <c r="D21" s="2">
+        <v>215</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1447</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="0"/>
+        <v>670.75</v>
       </c>
     </row>
   </sheetData>

--- a/files/browser-benchmark-results.xlsx
+++ b/files/browser-benchmark-results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\browser-benchmark-results\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356CAF23-FF67-4FED-B5A0-FC3F019A073C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42ED702D-94E6-4762-84F4-5D940BDC7410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="13176" windowHeight="23256" xr2:uid="{8B822904-8CBE-4657-805A-0AE50094A3AA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Google Chrome</t>
   </si>
@@ -103,14 +103,21 @@
   </si>
   <si>
     <t>Average</t>
+  </si>
+  <si>
+    <t>Производительность</t>
+  </si>
+  <si>
+    <t>Работа с графикой</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -149,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -161,6 +168,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -477,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA09101-25FF-49F9-A77E-D74E6EC61E65}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -581,11 +597,21 @@
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="F6" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6" s="5">
+        <v>189</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1409</v>
+      </c>
+      <c r="D6" s="5">
+        <v>223</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1630</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="0"/>
+        <v>862.75</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -631,9 +657,21 @@
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10" s="2">
+        <v>207</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1493</v>
+      </c>
+      <c r="D10" s="2">
+        <v>206</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1493</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="0"/>
+        <v>849.75</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -779,6 +817,67 @@
       <c r="F21" s="4">
         <f t="shared" si="0"/>
         <v>670.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="6">
+        <v>1</v>
+      </c>
+      <c r="C30" s="6">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="7">
+        <f>B2/B6</f>
+        <v>1.164021164021164</v>
+      </c>
+      <c r="C31" s="7">
+        <f>C2/C6</f>
+        <v>1.3328601845280341</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="7">
+        <f>B3/B6</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="C32" s="7">
+        <f>C3/C6</f>
+        <v>0.7331440738112136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="7">
+        <f>B16/B6</f>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="C33" s="7">
+        <f>C16/C6</f>
+        <v>1.2377572746628815</v>
       </c>
     </row>
   </sheetData>

--- a/files/browser-benchmark-results.xlsx
+++ b/files/browser-benchmark-results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\browser-benchmark-results\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42ED702D-94E6-4762-84F4-5D940BDC7410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6186363-AA0B-4E2C-8469-E08B40F86952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="13176" windowHeight="23256" xr2:uid="{8B822904-8CBE-4657-805A-0AE50094A3AA}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="16440" windowHeight="29040" xr2:uid="{8B822904-8CBE-4657-805A-0AE50094A3AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -496,7 +496,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -705,9 +705,21 @@
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B14" s="2">
+        <v>210</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1379</v>
+      </c>
+      <c r="D14" s="2">
+        <v>198</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1760</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="0"/>
+        <v>886.75</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">

--- a/files/browser-benchmark-results.xlsx
+++ b/files/browser-benchmark-results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\browser-benchmark-results\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6186363-AA0B-4E2C-8469-E08B40F86952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C23C1F-C959-4419-BC5F-2F5762451670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="16440" windowHeight="29040" xr2:uid="{8B822904-8CBE-4657-805A-0AE50094A3AA}"/>
   </bookViews>
@@ -78,9 +78,6 @@
     <t>Opera GX</t>
   </si>
   <si>
-    <t>Thorium</t>
-  </si>
-  <si>
     <t>Ungoogled Chromium</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>Работа с графикой</t>
+  </si>
+  <si>
+    <t>Thorium AVX2</t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -520,7 +520,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -694,16 +694,28 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>24</v>
+      </c>
+      <c r="B13" s="2">
+        <v>226</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2079</v>
+      </c>
+      <c r="D13" s="2">
+        <v>273</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2049</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="0"/>
+        <v>1156.75</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2">
         <v>210</v>
@@ -724,7 +736,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F15" s="4" t="e">
         <f t="shared" si="0"/>
@@ -733,7 +745,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2">
         <v>210</v>
@@ -754,7 +766,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2">
         <v>186</v>
@@ -775,7 +787,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18" s="4" t="e">
         <f t="shared" si="0"/>
@@ -791,7 +803,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2">
         <v>131</v>
@@ -812,7 +824,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2">
         <v>130</v>
@@ -833,10 +845,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -881,7 +893,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B33" s="7">
         <f>B16/B6</f>
